--- a/Ada.Web/upload/redbook.xlsx
+++ b/Ada.Web/upload/redbook.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>结算人ID</t>
   </si>
@@ -58,172 +58,322 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>X1810221456414173</t>
-  </si>
-  <si>
-    <t>闹闹宝宝 </t>
-  </si>
-  <si>
-    <t>5b0f30364eacab34cbfa1e13</t>
-  </si>
-  <si>
-    <t>海南三亚</t>
-  </si>
-  <si>
-    <t>生活，母婴，美妆</t>
-  </si>
-  <si>
-    <t>孔繁燕</t>
-  </si>
-  <si>
-    <t>X1810221502404303</t>
-  </si>
-  <si>
-    <t>俞小安</t>
-  </si>
-  <si>
-    <t>54d61e2b2e1d9352d2ed5c50</t>
-  </si>
-  <si>
-    <t>上海徐汇</t>
-  </si>
-  <si>
-    <t>生活，美妆</t>
-  </si>
-  <si>
-    <t>X1810221505014314</t>
-  </si>
-  <si>
-    <t>亚历山大sam</t>
-  </si>
-  <si>
-    <t>590adf45a9b2ed2023c4ff42</t>
-  </si>
-  <si>
-    <t>美妆</t>
-  </si>
-  <si>
-    <t>X1810221508324340</t>
-  </si>
-  <si>
-    <t>一只念念呀</t>
-  </si>
-  <si>
-    <t>56528d229eb5781638e94300</t>
-  </si>
-  <si>
-    <t>生活，旅游，美妆</t>
-  </si>
-  <si>
-    <t>X1810221512104360</t>
-  </si>
-  <si>
-    <t>一百斤的畅</t>
-  </si>
-  <si>
-    <t>5969780950c4b43a6f99e0ac</t>
-  </si>
-  <si>
-    <t>上海静安</t>
-  </si>
-  <si>
-    <t>X1810221534204448</t>
-  </si>
-  <si>
-    <t>Honey欧尼咩 </t>
-  </si>
-  <si>
-    <t>5b2bd3114eacab42117e8124</t>
-  </si>
-  <si>
-    <t>生活，美食，母婴，美妆</t>
-  </si>
-  <si>
-    <t>X1810221635245301</t>
-  </si>
-  <si>
-    <t>兔兔兔_八哥 </t>
-  </si>
-  <si>
-    <t>550e88f94fac63282744d107</t>
-  </si>
-  <si>
-    <t>法国巴黎</t>
-  </si>
-  <si>
-    <t>生活，穿搭</t>
-  </si>
-  <si>
-    <t>X1810230901143119</t>
-  </si>
-  <si>
-    <t>wuli哼哼啊 </t>
-  </si>
-  <si>
-    <t>56d6e05b84edcd6c5b03363f</t>
-  </si>
-  <si>
-    <t>上海长宁</t>
-  </si>
-  <si>
-    <t>美食，生活</t>
-  </si>
-  <si>
-    <t>X1810230906343664</t>
-  </si>
-  <si>
-    <t>双胞胎-baby</t>
-  </si>
-  <si>
-    <t>5add44494eacab4e321da067</t>
-  </si>
-  <si>
-    <t>X1810231018142477</t>
-  </si>
-  <si>
-    <t>猪猪倩宝 </t>
-  </si>
-  <si>
-    <t>5b289643e8ac2b4f8544fe21</t>
-  </si>
-  <si>
-    <t>湖南长沙</t>
-  </si>
-  <si>
-    <t>美妆，穿搭，生活</t>
-  </si>
-  <si>
-    <t>X1810231051364716</t>
-  </si>
-  <si>
-    <t>Bonjour阿璐</t>
-  </si>
-  <si>
-    <t>5880c4e85e87e72988c06363</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>生活，美妆，美食，旅行</t>
-  </si>
-  <si>
-    <t>X1810231122176016</t>
-  </si>
-  <si>
-    <t>小默默moo </t>
-  </si>
-  <si>
-    <t>568339ee84edcd4453693488</t>
-  </si>
-  <si>
-    <t>上海黄埔</t>
-  </si>
-  <si>
-    <t>母婴，美食</t>
-  </si>
-  <si>
-    <t>X1804251432125166</t>
+    <t>皓天Andrew</t>
+  </si>
+  <si>
+    <t>5ab0d4c3e8ac2b39e3f4ab6b</t>
+  </si>
+  <si>
+    <t>小小可然</t>
+  </si>
+  <si>
+    <t>5a9170744eacab68bdcce298</t>
+  </si>
+  <si>
+    <t>鹅鹅鹅</t>
+  </si>
+  <si>
+    <t>5a758b3e11be1017694a8db8</t>
+  </si>
+  <si>
+    <t>长嘴爸爸</t>
+  </si>
+  <si>
+    <t>597aa24e50c4b40ca928ff11</t>
+  </si>
+  <si>
+    <t>唐梓Neil</t>
+  </si>
+  <si>
+    <t>592d16aa82ec3952d33a3768</t>
+  </si>
+  <si>
+    <t>小蛋黄omi</t>
+  </si>
+  <si>
+    <t>5a6b242e11be102c798d885f</t>
+  </si>
+  <si>
+    <t>Ginger_姜哥</t>
+  </si>
+  <si>
+    <t>58588d9a5e87e75f1127534e</t>
+  </si>
+  <si>
+    <t>大魔王咿咿呀呀</t>
+  </si>
+  <si>
+    <t>56dfc825aed758566f688813</t>
+  </si>
+  <si>
+    <t>我就是一个小红薯</t>
+  </si>
+  <si>
+    <t>592161e56a6a697378db16ee</t>
+  </si>
+  <si>
+    <t>希文Sivenn</t>
+  </si>
+  <si>
+    <t>59abf67e6a6a6910922fa4e2</t>
+  </si>
+  <si>
+    <t>黑泽</t>
+  </si>
+  <si>
+    <t>5b5f05db4eacab59ed4a7edc</t>
+  </si>
+  <si>
+    <t>子涵Fairy</t>
+  </si>
+  <si>
+    <t>5990df5950c4b40d60942ccb</t>
+  </si>
+  <si>
+    <t>honeycc</t>
+  </si>
+  <si>
+    <t>5695179ee4251d215c7ef6df</t>
+  </si>
+  <si>
+    <t>陈靖川</t>
+  </si>
+  <si>
+    <t>5a980bebe8ac2b3a806b73e1</t>
+  </si>
+  <si>
+    <t>SivennVogue_Lina</t>
+  </si>
+  <si>
+    <t>57c64af65e87e73aa35c5f24</t>
+  </si>
+  <si>
+    <t>朱雅婕-Tesia</t>
+  </si>
+  <si>
+    <t>5a7c84234eacab34f23389bb</t>
+  </si>
+  <si>
+    <t>橘生淮南又生淮北</t>
+  </si>
+  <si>
+    <t>5a5c24db11be1045f3f7d458</t>
+  </si>
+  <si>
+    <t>小越女</t>
+  </si>
+  <si>
+    <t>5b3cb21d11be10639fca1f59</t>
+  </si>
+  <si>
+    <t>liysisi</t>
+  </si>
+  <si>
+    <t>585750de5e87e76a68f79c48</t>
+  </si>
+  <si>
+    <t>阿屋叫嗷呜</t>
+  </si>
+  <si>
+    <t>58ede59350c4b45b221637c8</t>
+  </si>
+  <si>
+    <t>Baby-J林洁</t>
+  </si>
+  <si>
+    <t>5a9a4a9b11be103fc810872d</t>
+  </si>
+  <si>
+    <t>Wuli小彤彤</t>
+  </si>
+  <si>
+    <t>54ca82a32e1d9339e4ce3472</t>
+  </si>
+  <si>
+    <t>杨昊豪</t>
+  </si>
+  <si>
+    <t>5b83a9c0daf048000146050c</t>
+  </si>
+  <si>
+    <t>小蘑菇Lo1</t>
+  </si>
+  <si>
+    <t>56f096f4aed7580dd787055e</t>
+  </si>
+  <si>
+    <t>子俊同学</t>
+  </si>
+  <si>
+    <t>566c153d6a6a692a8694487f</t>
+  </si>
+  <si>
+    <t>大头表妹</t>
+  </si>
+  <si>
+    <t>55fb63a9b7ba220b37a4ebe2</t>
+  </si>
+  <si>
+    <t>吴夏帆</t>
+  </si>
+  <si>
+    <t>5a19292511be102adffacd2c</t>
+  </si>
+  <si>
+    <t>几几杰</t>
+  </si>
+  <si>
+    <t>5b5ade114eacab5e40a44648</t>
+  </si>
+  <si>
+    <t>_Josephine</t>
+  </si>
+  <si>
+    <t>59d8f5ad6eea88745150ca2a</t>
+  </si>
+  <si>
+    <t>半夜蜘蛛人</t>
+  </si>
+  <si>
+    <t>5aa795844eacab73f81fc175</t>
+  </si>
+  <si>
+    <t>蒋菲菲Evad</t>
+  </si>
+  <si>
+    <t>5acacaf911be10330628184a</t>
+  </si>
+  <si>
+    <t>萌萌大人</t>
+  </si>
+  <si>
+    <t>5a8e0cff4eacab5a4a1b9a9f</t>
+  </si>
+  <si>
+    <t>sharon虾仁</t>
+  </si>
+  <si>
+    <t>5a235af34eacab23acb4364a</t>
+  </si>
+  <si>
+    <t>是你的六个核桃呀</t>
+  </si>
+  <si>
+    <t>5a01a4794eacab48afc577be</t>
+  </si>
+  <si>
+    <t>小十一</t>
+  </si>
+  <si>
+    <t>5749ceaa6a6a6938f271df1b</t>
+  </si>
+  <si>
+    <t>Eros杨依寒</t>
+  </si>
+  <si>
+    <t>5b95fd034c59c30001fc8ecb</t>
+  </si>
+  <si>
+    <t>女性时尚，段子手，穿搭，型男</t>
+  </si>
+  <si>
+    <t>穿搭，美妆，摄影</t>
+  </si>
+  <si>
+    <t>美妆，洗护，生活，运动</t>
+  </si>
+  <si>
+    <t>型男，穿搭，生活</t>
+  </si>
+  <si>
+    <t>情感，生活，穿搭，型男</t>
+  </si>
+  <si>
+    <t>洗护，美妆，生活，情感，段子手</t>
+  </si>
+  <si>
+    <t>运动，洗护，型男</t>
+  </si>
+  <si>
+    <t>穿搭，护肤，美妆，情感</t>
+  </si>
+  <si>
+    <t>情感，音乐，美妆</t>
+  </si>
+  <si>
+    <t>洗护，型男，穿搭</t>
+  </si>
+  <si>
+    <t>美妆，穿搭，旅行</t>
+  </si>
+  <si>
+    <t>美妆，洗护，女性时尚，穿搭</t>
+  </si>
+  <si>
+    <t>洗护，美妆，旅行</t>
+  </si>
+  <si>
+    <t>洗护，美妆，生活</t>
+  </si>
+  <si>
+    <t>美食，穿搭，美妆，摄影</t>
+  </si>
+  <si>
+    <t>洗肤，美妆</t>
+  </si>
+  <si>
+    <t>舞蹈，运动</t>
+  </si>
+  <si>
+    <t>护肤，美妆</t>
+  </si>
+  <si>
+    <t>穿搭，洗护，美妆，女性时尚</t>
+  </si>
+  <si>
+    <t>段子手</t>
+  </si>
+  <si>
+    <t>洗护，穿搭，生活</t>
+  </si>
+  <si>
+    <t>洗护，美妆，穿搭</t>
+  </si>
+  <si>
+    <t>影视，生活，洗护</t>
+  </si>
+  <si>
+    <t>穿搭，型男</t>
+  </si>
+  <si>
+    <t>美妆，洗护，穿搭</t>
+  </si>
+  <si>
+    <t>摄影，穿搭，情感</t>
+  </si>
+  <si>
+    <t>母婴，穿搭</t>
+  </si>
+  <si>
+    <t>穿搭</t>
+  </si>
+  <si>
+    <t>穿搭，美妆，洗护</t>
+  </si>
+  <si>
+    <t>美妆，生活，洗护</t>
+  </si>
+  <si>
+    <t>含原创出境</t>
+  </si>
+  <si>
+    <t>X1812141201107212</t>
+  </si>
+  <si>
+    <t>李效娴</t>
+  </si>
+  <si>
+    <t>X1712181348240010</t>
   </si>
 </sst>
 </file>
@@ -611,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -626,7 +776,9 @@
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" style="2" customWidth="1"/>
-    <col min="7" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,410 +822,1154 @@
     </row>
     <row r="2" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H2" s="2">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H3" s="2">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="2">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.3</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H5" s="2">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.4</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="2">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="2">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.5</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H10" s="2">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H11" s="2">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H12" s="2">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2">
+        <v>800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>800</v>
+      </c>
+      <c r="I22" s="2">
+        <v>800</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="2">
+        <v>800</v>
+      </c>
+      <c r="H24" s="2">
+        <v>800</v>
+      </c>
+      <c r="I24" s="2">
+        <v>800</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="2">
+        <v>500</v>
+      </c>
+      <c r="H25" s="2">
+        <v>500</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="2">
+        <v>500</v>
+      </c>
+      <c r="H28" s="2">
+        <v>500</v>
+      </c>
+      <c r="I28" s="2">
+        <v>500</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="2">
+        <v>500</v>
+      </c>
+      <c r="H29" s="2">
+        <v>500</v>
+      </c>
+      <c r="I29" s="2">
+        <v>500</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="2">
+        <v>500</v>
+      </c>
+      <c r="H30" s="2">
+        <v>500</v>
+      </c>
+      <c r="I30" s="2">
+        <v>500</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="2">
+        <v>500</v>
+      </c>
+      <c r="H31" s="2">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>500</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="2">
+        <v>500</v>
+      </c>
+      <c r="H32" s="2">
+        <v>500</v>
+      </c>
+      <c r="I32" s="2">
+        <v>500</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="2">
+        <v>500</v>
+      </c>
+      <c r="H33" s="2">
+        <v>500</v>
+      </c>
+      <c r="I33" s="2">
+        <v>500</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="2">
+        <v>500</v>
+      </c>
+      <c r="H34" s="2">
+        <v>500</v>
+      </c>
+      <c r="I34" s="2">
+        <v>500</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="2">
+        <v>500</v>
+      </c>
+      <c r="H35" s="2">
+        <v>500</v>
+      </c>
+      <c r="I35" s="2">
+        <v>500</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="2">
+        <v>500</v>
+      </c>
+      <c r="H36" s="2">
+        <v>500</v>
+      </c>
+      <c r="I36" s="2">
+        <v>500</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="2">
         <v>2500</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
+      <c r="H37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/redbook.xlsx
+++ b/Ada.Web/upload/redbook.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="374">
   <si>
     <t>结算人ID</t>
   </si>
@@ -58,322 +58,1093 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>皓天Andrew</t>
-  </si>
-  <si>
-    <t>5ab0d4c3e8ac2b39e3f4ab6b</t>
-  </si>
-  <si>
-    <t>小小可然</t>
-  </si>
-  <si>
-    <t>5a9170744eacab68bdcce298</t>
-  </si>
-  <si>
-    <t>鹅鹅鹅</t>
-  </si>
-  <si>
-    <t>5a758b3e11be1017694a8db8</t>
-  </si>
-  <si>
-    <t>长嘴爸爸</t>
-  </si>
-  <si>
-    <t>597aa24e50c4b40ca928ff11</t>
-  </si>
-  <si>
-    <t>唐梓Neil</t>
-  </si>
-  <si>
-    <t>592d16aa82ec3952d33a3768</t>
-  </si>
-  <si>
-    <t>小蛋黄omi</t>
-  </si>
-  <si>
-    <t>5a6b242e11be102c798d885f</t>
-  </si>
-  <si>
-    <t>Ginger_姜哥</t>
-  </si>
-  <si>
-    <t>58588d9a5e87e75f1127534e</t>
-  </si>
-  <si>
-    <t>大魔王咿咿呀呀</t>
-  </si>
-  <si>
-    <t>56dfc825aed758566f688813</t>
-  </si>
-  <si>
-    <t>我就是一个小红薯</t>
-  </si>
-  <si>
-    <t>592161e56a6a697378db16ee</t>
-  </si>
-  <si>
-    <t>希文Sivenn</t>
-  </si>
-  <si>
-    <t>59abf67e6a6a6910922fa4e2</t>
-  </si>
-  <si>
-    <t>黑泽</t>
-  </si>
-  <si>
-    <t>5b5f05db4eacab59ed4a7edc</t>
-  </si>
-  <si>
-    <t>子涵Fairy</t>
-  </si>
-  <si>
-    <t>5990df5950c4b40d60942ccb</t>
-  </si>
-  <si>
-    <t>honeycc</t>
-  </si>
-  <si>
-    <t>5695179ee4251d215c7ef6df</t>
-  </si>
-  <si>
-    <t>陈靖川</t>
-  </si>
-  <si>
-    <t>5a980bebe8ac2b3a806b73e1</t>
-  </si>
-  <si>
-    <t>SivennVogue_Lina</t>
-  </si>
-  <si>
-    <t>57c64af65e87e73aa35c5f24</t>
-  </si>
-  <si>
-    <t>朱雅婕-Tesia</t>
-  </si>
-  <si>
-    <t>5a7c84234eacab34f23389bb</t>
-  </si>
-  <si>
-    <t>橘生淮南又生淮北</t>
-  </si>
-  <si>
-    <t>5a5c24db11be1045f3f7d458</t>
-  </si>
-  <si>
-    <t>小越女</t>
-  </si>
-  <si>
-    <t>5b3cb21d11be10639fca1f59</t>
-  </si>
-  <si>
-    <t>liysisi</t>
-  </si>
-  <si>
-    <t>585750de5e87e76a68f79c48</t>
-  </si>
-  <si>
-    <t>阿屋叫嗷呜</t>
-  </si>
-  <si>
-    <t>58ede59350c4b45b221637c8</t>
-  </si>
-  <si>
-    <t>Baby-J林洁</t>
-  </si>
-  <si>
-    <t>5a9a4a9b11be103fc810872d</t>
-  </si>
-  <si>
-    <t>Wuli小彤彤</t>
-  </si>
-  <si>
-    <t>54ca82a32e1d9339e4ce3472</t>
-  </si>
-  <si>
-    <t>杨昊豪</t>
-  </si>
-  <si>
-    <t>5b83a9c0daf048000146050c</t>
-  </si>
-  <si>
-    <t>小蘑菇Lo1</t>
-  </si>
-  <si>
-    <t>56f096f4aed7580dd787055e</t>
-  </si>
-  <si>
-    <t>子俊同学</t>
-  </si>
-  <si>
-    <t>566c153d6a6a692a8694487f</t>
-  </si>
-  <si>
-    <t>大头表妹</t>
-  </si>
-  <si>
-    <t>55fb63a9b7ba220b37a4ebe2</t>
-  </si>
-  <si>
-    <t>吴夏帆</t>
-  </si>
-  <si>
-    <t>5a19292511be102adffacd2c</t>
-  </si>
-  <si>
-    <t>几几杰</t>
-  </si>
-  <si>
-    <t>5b5ade114eacab5e40a44648</t>
-  </si>
-  <si>
-    <t>_Josephine</t>
-  </si>
-  <si>
-    <t>59d8f5ad6eea88745150ca2a</t>
-  </si>
-  <si>
-    <t>半夜蜘蛛人</t>
-  </si>
-  <si>
-    <t>5aa795844eacab73f81fc175</t>
-  </si>
-  <si>
-    <t>蒋菲菲Evad</t>
-  </si>
-  <si>
-    <t>5acacaf911be10330628184a</t>
-  </si>
-  <si>
-    <t>萌萌大人</t>
-  </si>
-  <si>
-    <t>5a8e0cff4eacab5a4a1b9a9f</t>
-  </si>
-  <si>
-    <t>sharon虾仁</t>
-  </si>
-  <si>
-    <t>5a235af34eacab23acb4364a</t>
-  </si>
-  <si>
-    <t>是你的六个核桃呀</t>
-  </si>
-  <si>
-    <t>5a01a4794eacab48afc577be</t>
-  </si>
-  <si>
-    <t>小十一</t>
-  </si>
-  <si>
-    <t>5749ceaa6a6a6938f271df1b</t>
-  </si>
-  <si>
-    <t>Eros杨依寒</t>
-  </si>
-  <si>
-    <t>5b95fd034c59c30001fc8ecb</t>
-  </si>
-  <si>
-    <t>女性时尚，段子手，穿搭，型男</t>
-  </si>
-  <si>
-    <t>穿搭，美妆，摄影</t>
-  </si>
-  <si>
-    <t>美妆，洗护，生活，运动</t>
-  </si>
-  <si>
-    <t>型男，穿搭，生活</t>
-  </si>
-  <si>
-    <t>情感，生活，穿搭，型男</t>
-  </si>
-  <si>
-    <t>洗护，美妆，生活，情感，段子手</t>
-  </si>
-  <si>
-    <t>运动，洗护，型男</t>
-  </si>
-  <si>
-    <t>穿搭，护肤，美妆，情感</t>
-  </si>
-  <si>
-    <t>情感，音乐，美妆</t>
-  </si>
-  <si>
-    <t>洗护，型男，穿搭</t>
-  </si>
-  <si>
-    <t>美妆，穿搭，旅行</t>
-  </si>
-  <si>
-    <t>美妆，洗护，女性时尚，穿搭</t>
-  </si>
-  <si>
-    <t>洗护，美妆，旅行</t>
-  </si>
-  <si>
-    <t>洗护，美妆，生活</t>
-  </si>
-  <si>
-    <t>美食，穿搭，美妆，摄影</t>
-  </si>
-  <si>
-    <t>洗肤，美妆</t>
-  </si>
-  <si>
-    <t>舞蹈，运动</t>
-  </si>
-  <si>
-    <t>护肤，美妆</t>
-  </si>
-  <si>
-    <t>穿搭，洗护，美妆，女性时尚</t>
-  </si>
-  <si>
-    <t>段子手</t>
-  </si>
-  <si>
-    <t>洗护，穿搭，生活</t>
-  </si>
-  <si>
-    <t>洗护，美妆，穿搭</t>
-  </si>
-  <si>
-    <t>影视，生活，洗护</t>
-  </si>
-  <si>
-    <t>穿搭，型男</t>
-  </si>
-  <si>
-    <t>美妆，洗护，穿搭</t>
-  </si>
-  <si>
-    <t>摄影，穿搭，情感</t>
-  </si>
-  <si>
-    <t>母婴，穿搭</t>
-  </si>
-  <si>
-    <t>穿搭</t>
-  </si>
-  <si>
-    <t>穿搭，美妆，洗护</t>
-  </si>
-  <si>
-    <t>美妆，生活，洗护</t>
-  </si>
-  <si>
-    <t>含原创出境</t>
-  </si>
-  <si>
-    <t>X1812141201107212</t>
-  </si>
-  <si>
     <t>李效娴</t>
   </si>
   <si>
     <t>X1712181348240010</t>
+  </si>
+  <si>
+    <t>食物猪</t>
+  </si>
+  <si>
+    <t>5b5ad708e8ac2b1299d35f4c</t>
+  </si>
+  <si>
+    <t>奶油桃子</t>
+  </si>
+  <si>
+    <t>5b5a898d4eacab3b415c1010</t>
+  </si>
+  <si>
+    <t>奔跑吧蜗牛</t>
+  </si>
+  <si>
+    <t>5bc54f8829e01d0001e726b3</t>
+  </si>
+  <si>
+    <t>小嘴吃酱</t>
+  </si>
+  <si>
+    <t>5b5e796c4eacab1bd12f172c</t>
+  </si>
+  <si>
+    <t>一支仙女水</t>
+  </si>
+  <si>
+    <t>5bb06e741602500001e0301d</t>
+  </si>
+  <si>
+    <t>美食猪太郎</t>
+  </si>
+  <si>
+    <t>5b5a95ba11be10372653efc9</t>
+  </si>
+  <si>
+    <t>萌城少女</t>
+  </si>
+  <si>
+    <t>5b5ab68be8ac2b05243ec281</t>
+  </si>
+  <si>
+    <t>萌卷软糕</t>
+  </si>
+  <si>
+    <t>5bcd4039eeaf7e0001d493c8</t>
+  </si>
+  <si>
+    <t>红妖掌柜</t>
+  </si>
+  <si>
+    <t>5b45aa404eacab32e315d9e2</t>
+  </si>
+  <si>
+    <t>心肝宝贝</t>
+  </si>
+  <si>
+    <t>5b5ab3364eacab5055ea9713</t>
+  </si>
+  <si>
+    <t>蜜桃姗子</t>
+  </si>
+  <si>
+    <t>5b457bfbe8ac2b52020fefba</t>
+  </si>
+  <si>
+    <t>SweetClub</t>
+  </si>
+  <si>
+    <t>5b5ad3d94eacab5af3baee6f</t>
+  </si>
+  <si>
+    <t>一只懒妈咪</t>
+  </si>
+  <si>
+    <t>5bc56f8d21e06500014befbe</t>
+  </si>
+  <si>
+    <t>水滴健身房</t>
+  </si>
+  <si>
+    <t>5b5ac80a11be10492f6f3c59</t>
+  </si>
+  <si>
+    <t>樱桃八木</t>
+  </si>
+  <si>
+    <t>5b45a4aee8ac2b5daa872f71</t>
+  </si>
+  <si>
+    <t>眼睛的秘密</t>
+  </si>
+  <si>
+    <t>5bcd3b29eeaf7e0001ce6786</t>
+  </si>
+  <si>
+    <t>种草木木酱</t>
+  </si>
+  <si>
+    <t>5b5eb3cc4eacab33a3c0bdb9</t>
+  </si>
+  <si>
+    <t>明星大侦探</t>
+  </si>
+  <si>
+    <t>5bc551a86d4b6b00015fc8ad</t>
+  </si>
+  <si>
+    <t>零食少女</t>
+  </si>
+  <si>
+    <t>5bb0705fe617cb000193e83b</t>
+  </si>
+  <si>
+    <t>魔法少女</t>
+  </si>
+  <si>
+    <t>5bc55dacec27fc00014331cc</t>
+  </si>
+  <si>
+    <t>爱吃的木子</t>
+  </si>
+  <si>
+    <t>5bb05b3faa7db300018cc0ea</t>
+  </si>
+  <si>
+    <t>种草少女Thia</t>
+  </si>
+  <si>
+    <t>5b459c8211be1016435e6d6b</t>
+  </si>
+  <si>
+    <t>小红薯酱</t>
+  </si>
+  <si>
+    <t>5bb06da2b71c98000156fbb0</t>
+  </si>
+  <si>
+    <t>白糖柚子茶</t>
+  </si>
+  <si>
+    <t>5b5abd5411be1047e06321cb</t>
+  </si>
+  <si>
+    <t>一块发糕</t>
+  </si>
+  <si>
+    <t>5b5a8d6b11be103392ffaf1e</t>
+  </si>
+  <si>
+    <t>无敌美少女</t>
+  </si>
+  <si>
+    <t>5bb06942cd338f0001214798</t>
+  </si>
+  <si>
+    <t>乖囧猫</t>
+  </si>
+  <si>
+    <t>5b5eb12d4eacab341212829b</t>
+  </si>
+  <si>
+    <t>大兔牙贝贝</t>
+  </si>
+  <si>
+    <t>5b5981d711be1035654d201b</t>
+  </si>
+  <si>
+    <t>猫步少女</t>
+  </si>
+  <si>
+    <t>5b5a915b4eacab3bbd7ace1a</t>
+  </si>
+  <si>
+    <t>亚亚吃货</t>
+  </si>
+  <si>
+    <t>5b5ea6b64eacab2ccf97cb17</t>
+  </si>
+  <si>
+    <t>嗨趣闻</t>
+  </si>
+  <si>
+    <t>5b4569dd4eacab13d8a81df4</t>
+  </si>
+  <si>
+    <t>咿呀咿呀呀</t>
+  </si>
+  <si>
+    <t>5b5ac63b11be104ac198816d</t>
+  </si>
+  <si>
+    <t>美食菌菌</t>
+  </si>
+  <si>
+    <t>5ba9b5eabd51be0001aa7af3</t>
+  </si>
+  <si>
+    <t>小米家的厨房</t>
+  </si>
+  <si>
+    <t>5ba9b5aa0a5c4a00013f0d70</t>
+  </si>
+  <si>
+    <t>爱吃的小米呀</t>
+  </si>
+  <si>
+    <t>5bc5671a0faca30001b8d920</t>
+  </si>
+  <si>
+    <t>醋包心路历程</t>
+  </si>
+  <si>
+    <t>5bb06f17743913000179727b</t>
+  </si>
+  <si>
+    <t>世俗少女爱美腻</t>
+  </si>
+  <si>
+    <t>5b5ec46ee8ac2b74af7ba316</t>
+  </si>
+  <si>
+    <t>小糖人</t>
+  </si>
+  <si>
+    <t>5bc554740857b9000163a51e</t>
+  </si>
+  <si>
+    <t>太阳味耶</t>
+  </si>
+  <si>
+    <t>5bb065f23b41e5000156e60d</t>
+  </si>
+  <si>
+    <t>静静是个美搭酱</t>
+  </si>
+  <si>
+    <t>5bb0669d227c4000017d0d6d</t>
+  </si>
+  <si>
+    <t>给五花肉表白</t>
+  </si>
+  <si>
+    <t>5bb075b51602500001e9d09d</t>
+  </si>
+  <si>
+    <t>小果妈妈</t>
+  </si>
+  <si>
+    <t>5bb071e11f30bf00011dc668</t>
+  </si>
+  <si>
+    <t>美食推荐</t>
+  </si>
+  <si>
+    <t>5bc557a0fc6e2700012be33d</t>
+  </si>
+  <si>
+    <t>精致小女人</t>
+  </si>
+  <si>
+    <t>5bb06efa1602500001e0e448</t>
+  </si>
+  <si>
+    <t>围裙妈妈</t>
+  </si>
+  <si>
+    <t>5bb0654409c3570001311770</t>
+  </si>
+  <si>
+    <t>动物王国</t>
+  </si>
+  <si>
+    <t>5bcd43e8f90c5d00012aa460</t>
+  </si>
+  <si>
+    <t>游戏天地</t>
+  </si>
+  <si>
+    <t>5bc5705a2cb8980001aa1029</t>
+  </si>
+  <si>
+    <t>超爱邓邓邓lun</t>
+  </si>
+  <si>
+    <t>5bc55868015d550001ff7203</t>
+  </si>
+  <si>
+    <t>日常美食</t>
+  </si>
+  <si>
+    <t>5bc5565a5d95e50001992508</t>
+  </si>
+  <si>
+    <t>萌萌小仙女</t>
+  </si>
+  <si>
+    <t>5bc5498c7fa7510001ddccfd</t>
+  </si>
+  <si>
+    <t>一只漂亮的cat</t>
+  </si>
+  <si>
+    <t>59c5172651783a0dab2180cc</t>
+  </si>
+  <si>
+    <t>全民游戏坑</t>
+  </si>
+  <si>
+    <t>5bc553395d95e5000195a2d2</t>
+  </si>
+  <si>
+    <t>向往的风景</t>
+  </si>
+  <si>
+    <t>5bc5506b7fa7510001e4e81f</t>
+  </si>
+  <si>
+    <t>种草菇凉</t>
+  </si>
+  <si>
+    <t>5bb06cf77f03d90001be9bbf</t>
+  </si>
+  <si>
+    <t>明星搞笑日常</t>
+  </si>
+  <si>
+    <t>5bc55936015d550001004c10</t>
+  </si>
+  <si>
+    <t>兔牙妹</t>
+  </si>
+  <si>
+    <t>5bb068b0f9790500019eb72b</t>
+  </si>
+  <si>
+    <t>水原柚子酱</t>
+  </si>
+  <si>
+    <t>5b3e3b5311be101721016a2b</t>
+  </si>
+  <si>
+    <t>星愿</t>
+  </si>
+  <si>
+    <t>5bc55878a1a6e20001d66c8e</t>
+  </si>
+  <si>
+    <t>iFashion</t>
+  </si>
+  <si>
+    <t>5b5eba6911be10333320917c</t>
+  </si>
+  <si>
+    <t>有一个爱吃的梦想</t>
+  </si>
+  <si>
+    <t>5bb063def9790500019839cc</t>
+  </si>
+  <si>
+    <t>大千世界杯</t>
+  </si>
+  <si>
+    <t>5bb068b5aa7db300019ef4d6</t>
+  </si>
+  <si>
+    <t>吃货集中营</t>
+  </si>
+  <si>
+    <t>5bb06716e617cb000187725c</t>
+  </si>
+  <si>
+    <t>美妆大侦探</t>
+  </si>
+  <si>
+    <t>蜜桃味的橘子</t>
+  </si>
+  <si>
+    <t>5ba9a5dd0a5c4a00012de971</t>
+  </si>
+  <si>
+    <t>蜜糖</t>
+  </si>
+  <si>
+    <t>5bc573819e40f10001e4616c</t>
+  </si>
+  <si>
+    <t>一条海盗船</t>
+  </si>
+  <si>
+    <t>5bcd37ec42317d000173334a</t>
+  </si>
+  <si>
+    <t>很帅不撩妹</t>
+  </si>
+  <si>
+    <t>5bc551226d4b6b00015f3944</t>
+  </si>
+  <si>
+    <t>小裙裙</t>
+  </si>
+  <si>
+    <t>5bb078831f30bf0001269956</t>
+  </si>
+  <si>
+    <t>燕子will</t>
+  </si>
+  <si>
+    <t>5b5e6cc311be107ef9574421</t>
+  </si>
+  <si>
+    <t>琪琪美食</t>
+  </si>
+  <si>
+    <t>5ba9b97f38fdef0001057576</t>
+  </si>
+  <si>
+    <t>时尚穿搭</t>
+  </si>
+  <si>
+    <t>5bb06f709ae4460001757ac1</t>
+  </si>
+  <si>
+    <t>吃货的世界你不懂</t>
+  </si>
+  <si>
+    <t>5bb0648845c6e80001a67b6c</t>
+  </si>
+  <si>
+    <t>雅萌吃货</t>
+  </si>
+  <si>
+    <t>5ba9bc04bbe6d10001e0534a</t>
+  </si>
+  <si>
+    <t>西西的生活</t>
+  </si>
+  <si>
+    <t>5bb075b9f2407b00010439c7</t>
+  </si>
+  <si>
+    <t>小食的吃常</t>
+  </si>
+  <si>
+    <t>5bb071aa09c357000141c540</t>
+  </si>
+  <si>
+    <t>美妆护肤样样精通</t>
+  </si>
+  <si>
+    <t>5bb06ff87d87110001cd7033</t>
+  </si>
+  <si>
+    <t>吃酱的日常</t>
+  </si>
+  <si>
+    <t>5bc567b69b75e3000160bdbd</t>
+  </si>
+  <si>
+    <t>性冷淡风</t>
+  </si>
+  <si>
+    <t>5bc565f921e0650001419495</t>
+  </si>
+  <si>
+    <t>小魔女Maggie</t>
+  </si>
+  <si>
+    <t>5b459fe64eacab2ba3a7689a</t>
+  </si>
+  <si>
+    <t>梦甜馨</t>
+  </si>
+  <si>
+    <t>5bb070f504ddb6000185eaac</t>
+  </si>
+  <si>
+    <t>萌宠联盟</t>
+  </si>
+  <si>
+    <t>5bc55cbc6a36ba0001586a00</t>
+  </si>
+  <si>
+    <t>乐儿宝</t>
+  </si>
+  <si>
+    <t>5bc5510a3f45e8000188c0e2</t>
+  </si>
+  <si>
+    <t>安分的柚子君</t>
+  </si>
+  <si>
+    <t>5bb07401b0eb99000107e41a</t>
+  </si>
+  <si>
+    <t>v唯新衣</t>
+  </si>
+  <si>
+    <t>5bd4544d07ef1c76b1a11231</t>
+  </si>
+  <si>
+    <t>幽默先生</t>
+  </si>
+  <si>
+    <t>5bc55023c0f39e0001478107</t>
+  </si>
+  <si>
+    <t>爱抚一世红尘</t>
+  </si>
+  <si>
+    <t>5bc56b987fa751000100eae8</t>
+  </si>
+  <si>
+    <t>宝妈大作战</t>
+  </si>
+  <si>
+    <t>5bb079d3e617cb0001a09172</t>
+  </si>
+  <si>
+    <t>小红书寻食记</t>
+  </si>
+  <si>
+    <t>5bc5586cee2a9d0001bfbae9</t>
+  </si>
+  <si>
+    <t>findgeek</t>
+  </si>
+  <si>
+    <t>5bc552b921e06500012dc9f4</t>
+  </si>
+  <si>
+    <t>旅途一站</t>
+  </si>
+  <si>
+    <t>5bc5502029e01d0001e7c52f</t>
+  </si>
+  <si>
+    <t>美腻的人生</t>
+  </si>
+  <si>
+    <t>5bc55ed494a1b30001912771</t>
+  </si>
+  <si>
+    <t>大城小厨</t>
+  </si>
+  <si>
+    <t>5bc5550d17ebc00001273975</t>
+  </si>
+  <si>
+    <t>小小水木酱</t>
+  </si>
+  <si>
+    <t>5bb078c88604540001356a3a</t>
+  </si>
+  <si>
+    <t>母仪天下</t>
+  </si>
+  <si>
+    <t>5bc548736a36ba0001430897</t>
+  </si>
+  <si>
+    <t>喜猫女孩</t>
+  </si>
+  <si>
+    <t>5bc561fe9b75e300015b539e</t>
+  </si>
+  <si>
+    <t>每日多滋味</t>
+  </si>
+  <si>
+    <t>5bb06df4b71c980001576752</t>
+  </si>
+  <si>
+    <t>小时尚</t>
+  </si>
+  <si>
+    <t>5bb0768245c6e80001beb5f3</t>
+  </si>
+  <si>
+    <t>珍孩宝</t>
+  </si>
+  <si>
+    <t>5bc553e2d5d0a800016835d7</t>
+  </si>
+  <si>
+    <t>今天穿什么</t>
+  </si>
+  <si>
+    <t>5bb06e8bc751e00001383505</t>
+  </si>
+  <si>
+    <t>糖醋大排</t>
+  </si>
+  <si>
+    <t>5bb0761d9ae44600017e6fee</t>
+  </si>
+  <si>
+    <t>苏州美食</t>
+  </si>
+  <si>
+    <t>5bcd388e08e1b900018d9e39</t>
+  </si>
+  <si>
+    <t>氧气少女的人生</t>
+  </si>
+  <si>
+    <t>5bb078d338423e000133fe5b</t>
+  </si>
+  <si>
+    <t>软趣味</t>
+  </si>
+  <si>
+    <t>5ba9afad5b570e0001a27b71</t>
+  </si>
+  <si>
+    <t>千层酥脆</t>
+  </si>
+  <si>
+    <t>5bb075b224c6940001989d9d</t>
+  </si>
+  <si>
+    <t>隐形的胖子</t>
+  </si>
+  <si>
+    <t>5bc5524428144c0001b7a62e</t>
+  </si>
+  <si>
+    <t>淘气蛋蛋</t>
+  </si>
+  <si>
+    <t>5bcd38568c138d0001ef3cfb</t>
+  </si>
+  <si>
+    <t>柴米油盐小酱子</t>
+  </si>
+  <si>
+    <t>5bc550c4ec27fc00013533f4</t>
+  </si>
+  <si>
+    <t>毛毛虫变身记</t>
+  </si>
+  <si>
+    <t>5bb074b73c3df30001b76294</t>
+  </si>
+  <si>
+    <t>今日三餐吃什么</t>
+  </si>
+  <si>
+    <t>5bb06f3b18e59700011745f4</t>
+  </si>
+  <si>
+    <t>胖死得了</t>
+  </si>
+  <si>
+    <t>5bcd3cffd5dc25000110c8b9</t>
+  </si>
+  <si>
+    <t>胖了喵星人</t>
+  </si>
+  <si>
+    <t>鱼丸没有粗面呀</t>
+  </si>
+  <si>
+    <t>5bb0675ed27fc100016aabce</t>
+  </si>
+  <si>
+    <t>爱生活爱健身</t>
+  </si>
+  <si>
+    <t>5bb064dd24c694000181d6ea</t>
+  </si>
+  <si>
+    <t>今天吃什么</t>
+  </si>
+  <si>
+    <t>5bb06e08e2b1da00011d2027</t>
+  </si>
+  <si>
+    <t>科技大叔</t>
+  </si>
+  <si>
+    <t>5bb06d710c1a670001dae218</t>
+  </si>
+  <si>
+    <t>乔姐说</t>
+  </si>
+  <si>
+    <t>5bb0761881d73500013f4a97</t>
+  </si>
+  <si>
+    <t>美食分享</t>
+  </si>
+  <si>
+    <t>5bc555a46c29700001dffbc5</t>
+  </si>
+  <si>
+    <t>柚柚育儿</t>
+  </si>
+  <si>
+    <t>5bc54dd50faca300019e9e9b</t>
+  </si>
+  <si>
+    <t>哈哈家居</t>
+  </si>
+  <si>
+    <t>5bc55d7115054a000138c3cf</t>
+  </si>
+  <si>
+    <t>饱暖思你呀</t>
+  </si>
+  <si>
+    <t>5b88e55c12724b0001889ba6</t>
+  </si>
+  <si>
+    <t>吃吃的秘密</t>
+  </si>
+  <si>
+    <t>5bc57011ec27fc0001561b76</t>
+  </si>
+  <si>
+    <t>逛街不如逛美搭菌</t>
+  </si>
+  <si>
+    <t>5bb069d145c6e80001ad9bc9</t>
+  </si>
+  <si>
+    <t>来pick啊</t>
+  </si>
+  <si>
+    <t>5bcd3ac508e1b9000190505c</t>
+  </si>
+  <si>
+    <t>好吃大鬼</t>
+  </si>
+  <si>
+    <t>5bb06e36f2407b0001fa3626</t>
+  </si>
+  <si>
+    <t>孩子的成长妈妈的修行</t>
+  </si>
+  <si>
+    <t>5bc54a84149383000184c41d</t>
+  </si>
+  <si>
+    <t>乐乐家居居</t>
+  </si>
+  <si>
+    <t>5bc55c68d4ecd30001eac96d</t>
+  </si>
+  <si>
+    <t>进击吧美食</t>
+  </si>
+  <si>
+    <t>5bc57335805fd30001613d0c</t>
+  </si>
+  <si>
+    <t>美食大咖</t>
+  </si>
+  <si>
+    <t>5bcd3fe6d5d8f60001e9c06f</t>
+  </si>
+  <si>
+    <t>痴痴的次次</t>
+  </si>
+  <si>
+    <t>5bc565086a36ba0001606657</t>
+  </si>
+  <si>
+    <t>小凡萌宠吖</t>
+  </si>
+  <si>
+    <t>5bb0719745c6e80001b82033</t>
+  </si>
+  <si>
+    <t>一棵大白菜</t>
+  </si>
+  <si>
+    <t>5bc557c729e01d0001effcf4</t>
+  </si>
+  <si>
+    <t>小红书旅行记</t>
+  </si>
+  <si>
+    <t>5bc54dee7fa7510001e24c86</t>
+  </si>
+  <si>
+    <t>悠悠最能妆</t>
+  </si>
+  <si>
+    <t>5bb06a653b41e500015cfbc0</t>
+  </si>
+  <si>
+    <t>感情偏食</t>
+  </si>
+  <si>
+    <t>5bc553f395452b000109444f</t>
+  </si>
+  <si>
+    <t>二豆子的日常</t>
+  </si>
+  <si>
+    <t>5bc55d937fa7510001f2f592</t>
+  </si>
+  <si>
+    <t>高冷女神小铺</t>
+  </si>
+  <si>
+    <t>5ba9b035b9d34d000113552b</t>
+  </si>
+  <si>
+    <t>琉璃</t>
+  </si>
+  <si>
+    <t>5bcd38dfe6149c00011f0a31</t>
+  </si>
+  <si>
+    <t>宠物日常</t>
+  </si>
+  <si>
+    <t>5bc55a11d5d0a800016eed4d</t>
+  </si>
+  <si>
+    <t>美食兔</t>
+  </si>
+  <si>
+    <t>5bc5684128144c0001ce4830</t>
+  </si>
+  <si>
+    <t>休闲时分</t>
+  </si>
+  <si>
+    <t>5bcd3e678c138d0001f6ab10</t>
+  </si>
+  <si>
+    <t>小猴剪子</t>
+  </si>
+  <si>
+    <t>5bc5605f0faca30001b26417</t>
+  </si>
+  <si>
+    <t>贝贝的小日子</t>
+  </si>
+  <si>
+    <t>5bcd39c00e570700011284c8</t>
+  </si>
+  <si>
+    <t>宝宝成长</t>
+  </si>
+  <si>
+    <t>5bc54c3021e065000126d615</t>
+  </si>
+  <si>
+    <t>易峰酱</t>
+  </si>
+  <si>
+    <t>5bc55b240857b900016ae415</t>
+  </si>
+  <si>
+    <t>可可呦</t>
+  </si>
+  <si>
+    <t>5bc55c1c7fa7510001f17b9e</t>
+  </si>
+  <si>
+    <t>萌萌日常</t>
+  </si>
+  <si>
+    <t>5bc5723395452b000128c814</t>
+  </si>
+  <si>
+    <t>Timi厨吧</t>
+  </si>
+  <si>
+    <t>5bc552a89150cc00015e77b9</t>
+  </si>
+  <si>
+    <t>欣欣呀</t>
+  </si>
+  <si>
+    <t>5bc55a5ad4ecd30001e8a998</t>
+  </si>
+  <si>
+    <t>美食，素人</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
+  <si>
+    <t>旅游，素人</t>
+  </si>
+  <si>
+    <t>美妆,素人</t>
+  </si>
+  <si>
+    <t>母婴，素人</t>
+  </si>
+  <si>
+    <t>运动，素人</t>
+  </si>
+  <si>
+    <t>洗护，素人</t>
+  </si>
+  <si>
+    <t>娱乐，素人</t>
+  </si>
+  <si>
+    <t>广东惠州</t>
+  </si>
+  <si>
+    <t>北京顺义</t>
+  </si>
+  <si>
+    <t>科技数码，素人</t>
+  </si>
+  <si>
+    <t>北京西城</t>
+  </si>
+  <si>
+    <t>广东佛山</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>上海嘉定</t>
+  </si>
+  <si>
+    <t>广东江门</t>
+  </si>
+  <si>
+    <t>宠物，素人</t>
+  </si>
+  <si>
+    <t>上海浦东</t>
+  </si>
+  <si>
+    <t>游戏，素人</t>
+  </si>
+  <si>
+    <t>贵州安顺</t>
+  </si>
+  <si>
+    <t>穿搭，素人</t>
+  </si>
+  <si>
+    <t>重庆江北</t>
+  </si>
+  <si>
+    <t>洗护，穿搭，素人</t>
+  </si>
+  <si>
+    <t>浙江杭州</t>
+  </si>
+  <si>
+    <t>河北石家庄</t>
+  </si>
+  <si>
+    <t>影视，素人</t>
+  </si>
+  <si>
+    <t>家居，素人</t>
+  </si>
+  <si>
+    <t>广东广州</t>
+  </si>
+  <si>
+    <t>X1812191155573616</t>
+  </si>
+  <si>
+    <t>含原创图文</t>
+  </si>
+  <si>
+    <t>广东中山</t>
+  </si>
+  <si>
+    <t>上海浦东新区</t>
+  </si>
+  <si>
+    <t>上海徐汇</t>
+  </si>
+  <si>
+    <t>北京昌平</t>
+  </si>
+  <si>
+    <t>北京朝阳</t>
+  </si>
+  <si>
+    <t>广东潮州</t>
+  </si>
+  <si>
+    <t>上海普陀</t>
+  </si>
+  <si>
+    <t>北京海淀</t>
+  </si>
+  <si>
+    <t>上海虹口</t>
+  </si>
+  <si>
+    <t>北京东城</t>
+  </si>
+  <si>
+    <t>福建宁德</t>
+  </si>
+  <si>
+    <t>广东东莞</t>
+  </si>
+  <si>
+    <t>广东深圳</t>
+  </si>
+  <si>
+    <t>广东揭阳</t>
+  </si>
+  <si>
+    <t>上海静安</t>
+  </si>
+  <si>
+    <t>上海黄浦</t>
+  </si>
+  <si>
+    <t>上海黄埔</t>
+  </si>
+  <si>
+    <t>北京怀柔</t>
+  </si>
+  <si>
+    <t>湖北武汉</t>
+  </si>
+  <si>
+    <t>澳门大堂区</t>
+  </si>
+  <si>
+    <t>北京丰台</t>
+  </si>
+  <si>
+    <t>北京房山</t>
+  </si>
+  <si>
+    <t>澳门路环岛</t>
+  </si>
+  <si>
+    <t>江西南昌</t>
+  </si>
+  <si>
+    <t>福建福州</t>
+  </si>
+  <si>
+    <t>北京大兴</t>
+  </si>
+  <si>
+    <t>上海宝山</t>
+  </si>
+  <si>
+    <t>广东河源</t>
+  </si>
+  <si>
+    <t>福建厦门</t>
+  </si>
+  <si>
+    <t>湖南湘潭</t>
+  </si>
+  <si>
+    <t>重庆北碚</t>
+  </si>
+  <si>
+    <t>上海金山</t>
+  </si>
+  <si>
+    <t>重庆城口</t>
+  </si>
+  <si>
+    <t>福建莆田</t>
+  </si>
+  <si>
+    <t>北京延庆</t>
+  </si>
+  <si>
+    <t>江苏南京</t>
+  </si>
+  <si>
+    <t>海南海口</t>
   </si>
 </sst>
 </file>
@@ -395,6 +1166,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -402,17 +1174,20 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -761,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -822,1154 +1597,4323 @@
     </row>
     <row r="2" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8000</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10000</v>
+        <v>307</v>
       </c>
       <c r="H3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3000</v>
+        <v>309</v>
       </c>
       <c r="H4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3000</v>
+        <v>307</v>
       </c>
       <c r="H5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3000</v>
+        <v>310</v>
       </c>
       <c r="H6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3000</v>
+        <v>307</v>
       </c>
       <c r="H7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3000</v>
+        <v>311</v>
       </c>
       <c r="H8" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2500</v>
+        <v>312</v>
       </c>
       <c r="H9" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2500</v>
+        <v>310</v>
       </c>
       <c r="H10" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3500</v>
+        <v>311</v>
       </c>
       <c r="H11" s="2">
-        <v>3500</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1200</v>
+        <v>313</v>
       </c>
       <c r="H12" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="H13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1200</v>
+        <v>311</v>
       </c>
       <c r="H14" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1000</v>
+        <v>312</v>
       </c>
       <c r="H15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="H16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1200</v>
+        <v>313</v>
       </c>
       <c r="H18" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1000</v>
+        <v>314</v>
       </c>
       <c r="H19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1200</v>
+        <v>307</v>
       </c>
       <c r="H20" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="H21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="2">
-        <v>800</v>
+        <v>307</v>
       </c>
       <c r="H22" s="2">
-        <v>800</v>
-      </c>
-      <c r="I22" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2000</v>
+        <v>310</v>
       </c>
       <c r="H23" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="2">
-        <v>800</v>
+        <v>313</v>
       </c>
       <c r="H24" s="2">
-        <v>800</v>
-      </c>
-      <c r="I24" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H25" s="2">
-        <v>500</v>
-      </c>
-      <c r="I25" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1500</v>
+        <v>307</v>
       </c>
       <c r="H26" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1500</v>
+        <v>310</v>
       </c>
       <c r="H27" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H28" s="2">
-        <v>500</v>
-      </c>
-      <c r="I28" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="2">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="H29" s="2">
-        <v>500</v>
-      </c>
-      <c r="I29" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H30" s="2">
-        <v>500</v>
-      </c>
-      <c r="I30" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H31" s="2">
-        <v>500</v>
-      </c>
-      <c r="I31" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="2">
-        <v>500</v>
+        <v>313</v>
       </c>
       <c r="H32" s="2">
-        <v>500</v>
-      </c>
-      <c r="I32" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="2">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="H33" s="2">
-        <v>500</v>
-      </c>
-      <c r="I33" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H34" s="2">
-        <v>500</v>
-      </c>
-      <c r="I34" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H35" s="2">
-        <v>500</v>
-      </c>
-      <c r="I35" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="2">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="H36" s="2">
-        <v>500</v>
-      </c>
-      <c r="I36" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" s="2">
+        <v>300</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="2">
+        <v>300</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H39" s="2">
+        <v>300</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" s="2">
+        <v>300</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H41" s="2">
+        <v>300</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H42" s="2">
+        <v>300</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" s="2">
+        <v>300</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" s="2">
+        <v>300</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H45" s="2">
+        <v>300</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="2">
+        <v>300</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="2">
+        <v>300</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" s="2">
+        <v>300</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" s="2">
+        <v>300</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" s="2">
+        <v>300</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2500</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" s="2">
+        <v>300</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L37" t="s">
+      <c r="C53" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="2">
+        <v>300</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="2">
+        <v>300</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="2">
+        <v>300</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="2">
+        <v>300</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H57" s="2">
+        <v>300</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" s="2">
+        <v>300</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" s="2">
+        <v>300</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H60" s="2">
+        <v>300</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H61" s="2">
+        <v>300</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" s="2">
+        <v>300</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H63" s="2">
+        <v>300</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="2">
+        <v>300</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H65" s="2">
+        <v>300</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H66" s="2">
+        <v>300</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="2">
+        <v>300</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H68" s="2">
+        <v>300</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="2">
+        <v>300</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H70" s="2">
+        <v>300</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" s="2">
+        <v>300</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" s="2">
+        <v>300</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H73" s="2">
+        <v>300</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H74" s="2">
+        <v>300</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H75" s="2">
+        <v>300</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H76" s="2">
+        <v>300</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H77" s="2">
+        <v>300</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H78" s="2">
+        <v>300</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H79" s="2">
+        <v>300</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H80" s="2">
+        <v>300</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H81" s="2">
+        <v>300</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H82" s="2">
+        <v>300</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H83" s="2">
+        <v>300</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H84" s="2">
+        <v>300</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H85" s="2">
+        <v>300</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H86" s="2">
+        <v>300</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H87" s="2">
+        <v>300</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" s="2">
+        <v>300</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H89" s="2">
+        <v>300</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H90" s="2">
+        <v>300</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H91" s="2">
+        <v>300</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H92" s="2">
+        <v>300</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" s="2">
+        <v>300</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H94" s="2">
+        <v>300</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H95" s="2">
+        <v>300</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H96" s="2">
+        <v>300</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H97" s="2">
+        <v>300</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H98" s="2">
+        <v>300</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H99" s="2">
+        <v>300</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" s="2">
+        <v>300</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H101" s="2">
+        <v>300</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H102" s="2">
+        <v>300</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H103" s="2">
+        <v>300</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H104" s="2">
+        <v>300</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H105" s="2">
+        <v>300</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H106" s="2">
+        <v>300</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H107" s="2">
+        <v>300</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H108" s="2">
+        <v>300</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H109" s="2">
+        <v>300</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" s="2">
+        <v>300</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" s="2">
+        <v>300</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" s="2">
+        <v>300</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H113" s="2">
+        <v>300</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H114" s="2">
+        <v>300</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" s="2">
+        <v>300</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H116" s="2">
+        <v>300</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H117" s="2">
+        <v>300</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H118" s="2">
+        <v>300</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H119" s="2">
+        <v>300</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H120" s="2">
+        <v>300</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H121" s="2">
+        <v>300</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H122" s="2">
+        <v>300</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H123" s="2">
+        <v>300</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H124" s="2">
+        <v>300</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H125" s="2">
+        <v>300</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H126" s="2">
+        <v>300</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H127" s="2">
+        <v>300</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H128" s="2">
+        <v>300</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H129" s="2">
+        <v>300</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H130" s="2">
+        <v>300</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H131" s="2">
+        <v>300</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H132" s="2">
+        <v>300</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H133" s="2">
+        <v>300</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H134" s="2">
+        <v>300</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H135" s="2">
+        <v>300</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H136" s="2">
+        <v>300</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H137" s="2">
+        <v>300</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H138" s="2">
+        <v>300</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H139" s="2">
+        <v>300</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H140" s="2">
+        <v>300</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H141" s="2">
+        <v>300</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="2">
+        <v>300</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H143" s="2">
+        <v>300</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H144" s="2">
+        <v>300</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H145" s="2">
+        <v>300</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" s="2">
+        <v>300</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="2">
+        <v>300</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H148" s="2">
+        <v>300</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H149" s="2">
+        <v>300</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H150" s="2">
+        <v>300</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
